--- a/pred_ohlcv/54_21/2019-11-02 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 REP ohlcv.xlsx
@@ -2394,7 +2394,7 @@
         <v>-1775.537567820393</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1703.469867820393</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1728.97675940131</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1705.58895940131</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1677.16345940131</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1653.91945940131</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1738.12345940131</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1562.26695940131</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1550.26695940131</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1550.26695940131</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1550.16695940131</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1550.16695940131</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1486.16695940131</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1486.16695940131</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1349.46235940131</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>299.6371239212853</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-106.7628760787147</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-106.7628760787147</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-196.6378160241196</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-59.90591602411959</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-97.8119160241196</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>628.7111839758804</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>619.3136839758804</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>603.8707839758804</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>607.0647839758803</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>592.6786839758803</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>581.5078839758803</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>621.5078839758803</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>621.6794839758803</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>621.6794839758803</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>627.0553839758803</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>686.6633839758803</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>686.6633839758803</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1036.79368397588</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1036.79368397588</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1047.79368397588</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1000.28988397588</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1632.12138397588</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1896.07818397588</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2687.23888397588</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>2025.982324308339</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>2603.150124308338</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>2787.278124308339</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3357.170841699643</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2806.691941699643</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3343.330524308339</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>8077.494215549157</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>8807.944712050108</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>8342.421812050108</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>8003.884512050108</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>8003.884512050108</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>5776.512712050108</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>5652.336512050108</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>5378.794112050108</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4344.124312050109</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4437.720299395677</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3505.028799395677</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>2864.622399395677</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>968.0304288085925</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>968.0304288085925</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>564.1338288085925</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>564.1338288085925</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>565.0663288085925</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>485.9740288085925</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>83.2654288085925</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>99.52752880859251</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1253.826128808592</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1487.365528808592</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>789.7628837702674</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>789.7628837702674</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>818.9040837702674</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>892.0440613716784</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>162.5371552870223</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>38.28385528702231</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 REP ohlcv.xlsx
@@ -2498,7 +2498,7 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1623.729867820393</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1224.976467820393</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1192.976467820393</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1202.976467820393</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1195.193467820393</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1728.97675940131</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1705.58895940131</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1677.16345940131</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1653.91945940131</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1738.12345940131</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1641.24475940131</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1547.06855940131</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1562.26695940131</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1550.26695940131</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1550.26695940131</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1550.16695940131</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1550.16695940131</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1486.16695940131</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1486.16695940131</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1349.46235940131</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>299.6371239212853</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-106.7628760787147</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-106.7628760787147</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-196.6378160241196</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-59.90591602411959</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-97.8119160241196</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>628.7111839758804</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>619.3136839758804</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>603.8707839758804</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>607.0647839758803</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>592.6786839758803</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>574.7288839758803</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>581.5078839758803</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>621.5078839758803</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>621.6794839758803</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>621.6794839758803</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>627.0553839758803</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>686.6633839758803</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>686.6633839758803</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1036.79368397588</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1036.79368397588</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1047.79368397588</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1000.28988397588</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1632.12138397588</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1896.07818397588</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2687.23888397588</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>2025.982324308339</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>2603.150124308338</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>2787.278124308339</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3357.170841699643</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2806.691941699643</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3343.330524308339</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>7571.994847430209</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>8873.429115549157</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>8077.494215549157</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>8807.944712050108</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>8342.421812050108</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>8003.884512050108</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>8003.884512050108</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>5776.512712050108</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>5652.336512050108</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>5378.794112050108</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4344.124312050109</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3413.683012050109</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3505.028799395677</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>2864.622399395677</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>968.0304288085925</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>968.0304288085925</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>564.1338288085925</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>564.1338288085925</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>565.0663288085925</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>485.9740288085925</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>83.2654288085925</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>99.52752880859251</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1187.019728808592</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1253.826128808592</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1487.365528808592</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>789.7628837702674</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>789.7628837702674</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>818.9040837702674</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>892.0440613716784</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>162.5371552870223</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>38.28385528702231</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
